--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203A8C7F-DEBD-4F2A-8F28-A1641C735488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1319302-4581-4357-B69B-A92349DA7E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="346">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1019,6 +1019,63 @@
   </si>
   <si>
     <t>pruebas al servicio Check/CheckIn</t>
+  </si>
+  <si>
+    <t>9:00-11:15</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio Check/CheckIn</t>
+  </si>
+  <si>
+    <t>11:15-12:30</t>
+  </si>
+  <si>
+    <t>12:30-1:15</t>
+  </si>
+  <si>
+    <t>1:15-2:15</t>
+  </si>
+  <si>
+    <t>2:15-2:56</t>
+  </si>
+  <si>
+    <t>2:56-4:00</t>
+  </si>
+  <si>
+    <t>Haciendo pruebas en la pasarela 2</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio InsertCrewPassenger y Check/CheckIn. Subiendo NC a azure devOps</t>
+  </si>
+  <si>
+    <t>9:00-12:49</t>
+  </si>
+  <si>
+    <t>12:49-1:49</t>
+  </si>
+  <si>
+    <t>1:49-2:00</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio Check/CheckOut. Subiendo NC a azure devOps</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio ConfirmEntry. Subiendo NC a azure devOps</t>
+  </si>
+  <si>
+    <t>2:00-4:30</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio Check/ValidationBcbp. Subiendo NC a azure devOps</t>
+  </si>
+  <si>
+    <t>4:30-5:46</t>
+  </si>
+  <si>
+    <t>5:46-6:00</t>
+  </si>
+  <si>
+    <t>Generar reporte newman y subir los cambios a la nube</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4001,10 +4058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4316,13 +4373,13 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="106">
+      <c r="A33" s="94">
         <v>44936</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="95" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4344,7 +4401,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4354,14 +4411,190 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="90"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="93"/>
+      <c r="A37" s="94">
+        <v>44937</v>
+      </c>
+      <c r="B37" s="92" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="106" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="91"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="90"/>
+      <c r="B39" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="106" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="90"/>
+      <c r="B40" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="90"/>
+      <c r="B41" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="106" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="90"/>
+      <c r="B42" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="90"/>
+      <c r="B43" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="94">
+        <v>44938</v>
+      </c>
+      <c r="B44" s="104" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="90"/>
+      <c r="B45" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="90"/>
+      <c r="B46" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="96" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="90"/>
+      <c r="B47" s="99" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="96" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="90"/>
+      <c r="B48" s="99" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="96" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="91"/>
+      <c r="B49" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="90"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="93"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="90"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="93"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="90"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="93"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="90"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="93"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="90"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="93"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="90"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="93"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="90"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="93"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="90"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="93"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="90"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="93"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="90"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="93"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="90"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="93"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="90"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="93"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="91"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\TAREAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1319302-4581-4357-B69B-A92349DA7E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75A4E4-1A58-4983-8CF5-A2D0EEE91014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6384" yWindow="600" windowWidth="17280" windowHeight="11028" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="368">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1076,6 +1076,72 @@
   </si>
   <si>
     <t>Generar reporte newman y subir los cambios a la nube</t>
+  </si>
+  <si>
+    <t>Subiendo NC de servicios que no funcionan en azure devops</t>
+  </si>
+  <si>
+    <t>10:15-1:30</t>
+  </si>
+  <si>
+    <t>1:30-2:36</t>
+  </si>
+  <si>
+    <t>Creando DCP para probar en pasarela 1 y 2 para ver que se comportan igual</t>
+  </si>
+  <si>
+    <t>2:36-3:36</t>
+  </si>
+  <si>
+    <t>3:36-4:11</t>
+  </si>
+  <si>
+    <t>Probando en pasarela 1 y 2 los DCP diseñados</t>
+  </si>
+  <si>
+    <t>4:11-5:30</t>
+  </si>
+  <si>
+    <t>Creando documento con resultado de las pruebas realizadas a partir de los DCP diseñados.</t>
+  </si>
+  <si>
+    <t>Subir a Azure devOps los resultado de las pruebas en eGate y poner link a One Drive donde se encuentran los DCP</t>
+  </si>
+  <si>
+    <t>8:30-9:44</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio ConfirmEntryRepeat. Subiendo NC a azure devOps</t>
+  </si>
+  <si>
+    <t>9:44-11:00</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio GetFligthCrew. Subiendo NC a azure devOps</t>
+  </si>
+  <si>
+    <t>12:00-12:56</t>
+  </si>
+  <si>
+    <t>Reunion temas sprints</t>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+  </si>
+  <si>
+    <t>12:56-1:06</t>
+  </si>
+  <si>
+    <t>1:06-2:06</t>
+  </si>
+  <si>
+    <t>2:06-4:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas al servicio GetFligthCrew. Subiendo NC a azure devOps. </t>
+  </si>
+  <si>
+    <t>Pruebas al servicio deleteCrew. No terminado</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1854,6 +1920,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4058,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4531,70 +4598,135 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="93"/>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="94">
+        <v>44939</v>
+      </c>
+      <c r="B50" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="93"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="98" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="93"/>
+      <c r="B52" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="96" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="93"/>
+      <c r="B53" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="93"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="98" t="s">
+        <v>351</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="90"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="93"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="93"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="98" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" s="96" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="94">
+        <v>44942</v>
+      </c>
+      <c r="B56" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="93"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="93"/>
+      <c r="B58" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="93"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="98" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" s="93" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="93"/>
+      <c r="B60" s="99" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" s="96" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="93"/>
-    </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="91"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="102"/>
+      <c r="B61" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="90"/>
+      <c r="B62" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="96" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="91"/>
+      <c r="B63" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="102" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75A4E4-1A58-4983-8CF5-A2D0EEE91014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500199A-D2FD-4D4A-B1F2-EEB42441C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6384" yWindow="600" windowWidth="17280" windowHeight="11028" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="389">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1142,6 +1142,69 @@
   </si>
   <si>
     <t>Pruebas al servicio deleteCrew. No terminado</t>
+  </si>
+  <si>
+    <t>Probando integración de selenium con azure devOps</t>
+  </si>
+  <si>
+    <t>9:00-1239</t>
+  </si>
+  <si>
+    <t>12:39-1:39</t>
+  </si>
+  <si>
+    <t>1:39-6:00</t>
+  </si>
+  <si>
+    <t>Integración de selenium con azure devOps</t>
+  </si>
+  <si>
+    <t>9:00-10:37</t>
+  </si>
+  <si>
+    <t>Documentando integración de selenium con azure devOps</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio DeleteCrew y subir NC a azure</t>
+  </si>
+  <si>
+    <t>10:37-12:00</t>
+  </si>
+  <si>
+    <t>12:00-12:15</t>
+  </si>
+  <si>
+    <t>Actualizar prioridad y severidad en azure. Subir version de Easy POC</t>
+  </si>
+  <si>
+    <t>Completar pruebas al servicio /api/Crew/GetFligthCrew</t>
+  </si>
+  <si>
+    <t>12:15-12:30</t>
+  </si>
+  <si>
+    <t>1:30-2:45</t>
+  </si>
+  <si>
+    <t>2:45-4:00</t>
+  </si>
+  <si>
+    <t>Pruebas en pasarela 5 con los muchachos de VB</t>
+  </si>
+  <si>
+    <t>Preparar documento con NC y subirlo al OneDrive</t>
+  </si>
+  <si>
+    <t>4:00-4:35</t>
+  </si>
+  <si>
+    <t>4:35-5:10</t>
+  </si>
+  <si>
+    <t>5:10-5:50</t>
+  </si>
+  <si>
+    <t>Subir NC a Azure devOps de eGate 5</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1920,7 +1983,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2338,14 +2410,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2365,21 +2437,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2388,14 +2460,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2404,14 +2476,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -2420,14 +2492,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -2436,7 +2508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -2445,14 +2517,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -2461,14 +2533,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -2479,7 +2551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -2488,7 +2560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2497,7 +2569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -2506,7 +2578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -2515,7 +2587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -2524,7 +2596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -2533,7 +2605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -2544,7 +2616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -2553,7 +2625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -2562,7 +2634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -2571,7 +2643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -2580,7 +2652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -2589,7 +2661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -2598,7 +2670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -2607,7 +2679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -2616,7 +2688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -2627,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -2636,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -2645,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -2654,7 +2726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -2663,7 +2735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -2672,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -2681,7 +2753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -2690,7 +2762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -2699,7 +2771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -2708,7 +2780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -2717,7 +2789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -2726,7 +2798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -2735,7 +2807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -2746,7 +2818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -2755,7 +2827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -2764,7 +2836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -2773,7 +2845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -2782,7 +2854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -2791,7 +2863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -2802,7 +2874,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -2811,7 +2883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -2820,7 +2892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -2829,7 +2901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -2838,7 +2910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -2847,7 +2919,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -2858,7 +2930,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -2867,7 +2939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -2876,7 +2948,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -2885,7 +2957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -2895,7 +2967,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -2904,7 +2976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -2915,7 +2987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -2924,7 +2996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -2933,7 +3005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -2944,7 +3016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -2953,7 +3025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -2962,7 +3034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -2973,7 +3045,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -2982,7 +3054,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -2991,7 +3063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3000,7 +3072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3009,7 +3081,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3018,7 +3090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3027,7 +3099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3038,7 +3110,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3047,7 +3119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3056,7 +3128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3067,7 +3139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3076,7 +3148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3085,7 +3157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3111,14 +3183,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3129,7 +3201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3140,7 +3212,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3149,7 +3221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3158,7 +3230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3169,7 +3241,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3178,7 +3250,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3187,7 +3259,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3198,7 +3270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3207,7 +3279,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3216,7 +3288,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3225,7 +3297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3234,7 +3306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3243,7 +3315,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3254,7 +3326,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3263,7 +3335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3272,7 +3344,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3281,7 +3353,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3290,7 +3362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3299,7 +3371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3308,7 +3380,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3317,7 +3389,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3328,7 +3400,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3337,7 +3409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3346,7 +3418,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3355,7 +3427,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3364,7 +3436,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3375,7 +3447,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3384,7 +3456,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3393,7 +3465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3402,7 +3474,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3413,7 +3485,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -3422,7 +3494,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -3431,7 +3503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -3440,7 +3512,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -3451,7 +3523,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -3460,7 +3532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -3469,7 +3541,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -3478,7 +3550,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -3487,7 +3559,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -3496,7 +3568,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -3507,7 +3579,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -3516,7 +3588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -3525,7 +3597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -3534,7 +3606,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -3543,7 +3615,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -3552,7 +3624,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -3561,7 +3633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -3572,7 +3644,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -3581,7 +3653,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -3590,7 +3662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -3599,7 +3671,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -3610,7 +3682,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -3619,7 +3691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -3628,7 +3700,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -3637,7 +3709,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -3648,7 +3720,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -3657,7 +3729,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -3666,7 +3738,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -3675,7 +3747,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -3684,7 +3756,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -3695,7 +3767,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -3704,7 +3776,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -3713,7 +3785,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -3722,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -3731,7 +3803,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -3742,7 +3814,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -3751,7 +3823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -3760,7 +3832,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -3769,7 +3841,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -3780,7 +3852,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -3789,7 +3861,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -3798,7 +3870,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -3807,7 +3879,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -3816,7 +3888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -3825,7 +3897,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -3834,7 +3906,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -3845,7 +3917,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -3854,7 +3926,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -3863,7 +3935,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -3874,7 +3946,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -3883,7 +3955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -3892,7 +3964,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -3901,7 +3973,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -3910,7 +3982,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -3919,7 +3991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -3930,7 +4002,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -3939,7 +4011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -3948,7 +4020,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -3959,7 +4031,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -3968,7 +4040,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -3977,7 +4049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -3986,7 +4058,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -3995,7 +4067,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4004,7 +4076,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4015,7 +4087,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4024,7 +4096,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4033,7 +4105,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4042,7 +4114,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4051,7 +4123,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4060,7 +4132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4071,7 +4143,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4080,7 +4152,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4089,7 +4161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4100,7 +4172,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4109,7 +4181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4125,20 +4197,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4149,7 +4221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4160,7 +4232,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4169,7 +4241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4178,7 +4250,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4187,7 +4259,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4196,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4205,7 +4277,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4214,7 +4286,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4224,7 +4296,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4233,7 +4305,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4244,7 +4316,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4253,7 +4325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4262,7 +4334,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4271,7 +4343,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4282,7 +4354,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4291,7 +4363,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4300,7 +4372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4309,7 +4381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4318,7 +4390,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4327,7 +4399,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4336,7 +4408,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4347,7 +4419,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4356,7 +4428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4365,7 +4437,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4374,7 +4446,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4385,7 +4457,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4394,7 +4466,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4403,7 +4475,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4412,7 +4484,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -4421,7 +4493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -4430,7 +4502,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -4439,7 +4511,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -4450,7 +4522,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -4459,7 +4531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -4468,7 +4540,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4477,7 +4549,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -4488,7 +4560,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -4497,7 +4569,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -4506,7 +4578,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -4515,7 +4587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -4524,7 +4596,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -4533,7 +4605,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -4542,7 +4614,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -4553,7 +4625,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -4562,7 +4634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -4571,7 +4643,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -4580,7 +4652,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -4589,7 +4661,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -4598,7 +4670,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -4609,7 +4681,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -4618,7 +4690,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -4627,7 +4699,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -4636,7 +4708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -4645,7 +4717,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -4654,7 +4726,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -4665,7 +4737,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -4674,7 +4746,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -4683,7 +4755,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -4692,7 +4764,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -4701,7 +4773,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -4710,7 +4782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -4719,13 +4791,135 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="91"/>
-      <c r="B63" s="107" t="s">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="90"/>
+      <c r="B63" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="102" t="s">
+      <c r="C63" s="93" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="94">
+        <v>44943</v>
+      </c>
+      <c r="B64" s="104" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="90"/>
+      <c r="B65" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="90"/>
+      <c r="B66" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="96" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="94">
+        <v>44944</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="C67" s="95" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="90"/>
+      <c r="B68" s="99" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" s="96" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="B69" s="98" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" s="107"/>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="90"/>
+      <c r="B70" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="C70" s="96" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="90"/>
+      <c r="B71" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="90"/>
+      <c r="B72" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="C72" s="108" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="90"/>
+      <c r="B73" s="98" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" s="96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="90"/>
+      <c r="B74" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="C74" s="96" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="90"/>
+      <c r="B75" s="98" t="s">
+        <v>386</v>
+      </c>
+      <c r="C75" s="93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="91"/>
+      <c r="B76" s="110" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="109" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\TAREAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500199A-D2FD-4D4A-B1F2-EEB42441C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55B9B4-53F0-4E01-810E-9148541EE9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="408">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1205,6 +1205,63 @@
   </si>
   <si>
     <t>Subir NC a Azure devOps de eGate 5</t>
+  </si>
+  <si>
+    <t>9:30-12:00</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio /api/Crew/GetFligthCrew</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio /api/Crew/EditCrewPassenger</t>
+  </si>
+  <si>
+    <t>1:00-1:50</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio /api/Flight/UpdateRemovedFlights</t>
+  </si>
+  <si>
+    <t>1:50-3:00</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio /api/IntelliPoc/GetIntelliPocResponses</t>
+  </si>
+  <si>
+    <t>3:00-4:00</t>
+  </si>
+  <si>
+    <t>Generando reporte newman</t>
+  </si>
+  <si>
+    <t>Pruebas en la pasarela 5</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>1:30-2:23</t>
+  </si>
+  <si>
+    <t>Analizando información de inspector que mando VB para las pruebas</t>
+  </si>
+  <si>
+    <t>Analisis del resultado de las pruebas en postman verificando coincidencias y discrepancias</t>
+  </si>
+  <si>
+    <t>2:23-2:53</t>
+  </si>
+  <si>
+    <t>Hacer mejoras al código para solucionar discrepancias</t>
+  </si>
+  <si>
+    <t>2:53-3:00</t>
+  </si>
+  <si>
+    <t>Subir cambios a OneDrive</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1983,16 +2040,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4197,10 +4254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,7 +4718,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -4670,7 +4727,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -4681,7 +4738,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -4690,7 +4747,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -4699,7 +4756,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -4708,7 +4765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -4717,7 +4774,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -4726,7 +4783,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -4737,7 +4794,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -4746,7 +4803,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -4755,7 +4812,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -4764,7 +4821,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -4772,8 +4829,9 @@
       <c r="C60" s="96" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="107"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -4782,7 +4840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -4790,8 +4848,9 @@
       <c r="C62" s="96" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="107"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -4800,7 +4859,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -4811,7 +4870,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -4820,7 +4879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -4829,7 +4888,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -4840,7 +4899,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -4849,7 +4908,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -4857,9 +4916,9 @@
       <c r="C69" s="96" t="s">
         <v>378</v>
       </c>
-      <c r="D69" s="107"/>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D69" s="108"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -4868,7 +4927,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -4877,16 +4936,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="96" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -4895,7 +4955,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -4904,7 +4964,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -4913,13 +4973,146 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91"/>
-      <c r="B76" s="110" t="s">
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="90"/>
+      <c r="B76" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="C76" s="109" t="s">
+      <c r="C76" s="96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="94">
+        <v>44945</v>
+      </c>
+      <c r="B77" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="95" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="90"/>
+      <c r="B78" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="90"/>
+      <c r="B79" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C79" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" s="33"/>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="90"/>
+      <c r="B80" s="99" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" s="96" t="s">
+        <v>393</v>
+      </c>
+      <c r="F80" s="33"/>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="90"/>
+      <c r="B81" s="99" t="s">
+        <v>396</v>
+      </c>
+      <c r="C81" s="96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="91"/>
+      <c r="B82" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="110">
+        <v>44946</v>
+      </c>
+      <c r="B83" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" s="96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="107" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" s="111" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="107" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" s="111" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="107" t="s">
+        <v>401</v>
+      </c>
+      <c r="C87" s="111" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="C88" s="111" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="C89" s="111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="111" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="107">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C91" s="111" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55B9B4-53F0-4E01-810E-9148541EE9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1102E-29EC-44DA-B827-9EE2E5396F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="426">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1262,6 +1262,60 @@
   </si>
   <si>
     <t>Subir cambios a OneDrive</t>
+  </si>
+  <si>
+    <t>3:30-3:45</t>
+  </si>
+  <si>
+    <t>3:45-4:00</t>
+  </si>
+  <si>
+    <t>4:00-5:30</t>
+  </si>
+  <si>
+    <t>Reunion con martin, Gianni y frabricio</t>
+  </si>
+  <si>
+    <t>Preparar documento con NC y subirlo al OneDrive(No terminado)</t>
+  </si>
+  <si>
+    <t>Preparar documento con NC y subirlo al OneDrive(continuación)</t>
+  </si>
+  <si>
+    <t>8:30-10:25</t>
+  </si>
+  <si>
+    <t>10:25-11:24</t>
+  </si>
+  <si>
+    <t>Añadiendo reporte a proyecto selenium</t>
+  </si>
+  <si>
+    <t>11:24-1:00</t>
+  </si>
+  <si>
+    <t>Perfeccionando reporte de proyecto selenium</t>
+  </si>
+  <si>
+    <t>2:00-4:20</t>
+  </si>
+  <si>
+    <t>Subiendo cambios al repository</t>
+  </si>
+  <si>
+    <t>4:20-4:28</t>
+  </si>
+  <si>
+    <t>4:28-5:30</t>
+  </si>
+  <si>
+    <t>Analizando con los desarrolladores otros servicios de poc que se pueden probar con postman</t>
+  </si>
+  <si>
+    <t>Investigando como generar reporte html de selenium con azure</t>
+  </si>
+  <si>
+    <t>1:30-4:00</t>
   </si>
 </sst>
 </file>
@@ -2045,11 +2099,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2467,14 +2525,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2494,21 +2552,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2517,14 +2575,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2533,14 +2591,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -2549,14 +2607,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -2565,7 +2623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -2574,14 +2632,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -2590,14 +2648,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -2608,7 +2666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -2617,7 +2675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2626,7 +2684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -2635,7 +2693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -2644,7 +2702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -2653,7 +2711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -2662,7 +2720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -2673,7 +2731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -2682,7 +2740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -2691,7 +2749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -2700,7 +2758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -2709,7 +2767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -2718,7 +2776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -2727,7 +2785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -2736,7 +2794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -2745,7 +2803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -2756,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -2765,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -2774,7 +2832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -2783,7 +2841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -2792,7 +2850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -2801,7 +2859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -2810,7 +2868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -2819,7 +2877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -2828,7 +2886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -2837,7 +2895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -2846,7 +2904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -2855,7 +2913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -2864,7 +2922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -2875,7 +2933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -2884,7 +2942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -2893,7 +2951,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -2902,7 +2960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -2911,7 +2969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -2920,7 +2978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -2931,7 +2989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -2940,7 +2998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -2949,7 +3007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -2958,7 +3016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -2967,7 +3025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -2976,7 +3034,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -2987,7 +3045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -2996,7 +3054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3005,7 +3063,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3014,7 +3072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3024,7 +3082,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3033,7 +3091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3044,7 +3102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3053,7 +3111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3062,7 +3120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3073,7 +3131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3082,7 +3140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3091,7 +3149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3102,7 +3160,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3111,7 +3169,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3120,7 +3178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3129,7 +3187,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3138,7 +3196,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3147,7 +3205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3156,7 +3214,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3167,7 +3225,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3176,7 +3234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3185,7 +3243,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3196,7 +3254,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3205,7 +3263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3214,7 +3272,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3240,14 +3298,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3258,7 +3316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3269,7 +3327,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3278,7 +3336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3287,7 +3345,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3298,7 +3356,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3307,7 +3365,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3316,7 +3374,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3327,7 +3385,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3336,7 +3394,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3345,7 +3403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3354,7 +3412,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3363,7 +3421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3372,7 +3430,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3383,7 +3441,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3392,7 +3450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3401,7 +3459,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3410,7 +3468,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3419,7 +3477,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3428,7 +3486,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3437,7 +3495,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3446,7 +3504,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3457,7 +3515,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3466,7 +3524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3475,7 +3533,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3484,7 +3542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3493,7 +3551,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3504,7 +3562,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3513,7 +3571,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3522,7 +3580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3531,7 +3589,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3542,7 +3600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -3551,7 +3609,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -3560,7 +3618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -3569,7 +3627,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -3580,7 +3638,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -3589,7 +3647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -3598,7 +3656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -3607,7 +3665,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -3616,7 +3674,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -3625,7 +3683,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -3636,7 +3694,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -3645,7 +3703,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -3654,7 +3712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -3663,7 +3721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -3672,7 +3730,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -3681,7 +3739,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -3690,7 +3748,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -3701,7 +3759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -3710,7 +3768,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -3719,7 +3777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -3728,7 +3786,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -3739,7 +3797,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -3748,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -3757,7 +3815,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -3766,7 +3824,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -3777,7 +3835,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -3786,7 +3844,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -3795,7 +3853,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -3804,7 +3862,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -3813,7 +3871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -3824,7 +3882,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -3833,7 +3891,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -3842,7 +3900,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -3851,7 +3909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -3860,7 +3918,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -3871,7 +3929,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -3880,7 +3938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -3889,7 +3947,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -3898,7 +3956,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -3909,7 +3967,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -3918,7 +3976,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -3927,7 +3985,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -3936,7 +3994,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -3945,7 +4003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -3954,7 +4012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -3963,7 +4021,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -3974,7 +4032,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -3983,7 +4041,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -3992,7 +4050,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4003,7 +4061,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4012,7 +4070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4021,7 +4079,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4030,7 +4088,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4039,7 +4097,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4048,7 +4106,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4059,7 +4117,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4068,7 +4126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4077,7 +4135,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4088,7 +4146,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4097,7 +4155,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4106,7 +4164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4115,7 +4173,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4124,7 +4182,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4133,7 +4191,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4144,7 +4202,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4153,7 +4211,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4162,7 +4220,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4171,7 +4229,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4180,7 +4238,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4189,7 +4247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4200,7 +4258,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4209,7 +4267,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4218,7 +4276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4229,7 +4287,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4238,7 +4296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4254,20 +4312,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4289,7 +4347,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4298,7 +4356,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4307,7 +4365,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4316,7 +4374,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4325,7 +4383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4334,7 +4392,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4343,7 +4401,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4353,7 +4411,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4362,7 +4420,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4373,7 +4431,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4382,7 +4440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4391,7 +4449,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4400,7 +4458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4411,7 +4469,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4420,7 +4478,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4429,7 +4487,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4438,7 +4496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4447,7 +4505,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4456,7 +4514,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4465,7 +4523,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4476,7 +4534,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4485,7 +4543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4494,7 +4552,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4503,7 +4561,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4514,7 +4572,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4523,7 +4581,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4532,7 +4590,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4541,7 +4599,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -4550,7 +4608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -4559,7 +4617,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -4568,7 +4626,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -4579,7 +4637,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -4588,7 +4646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -4597,7 +4655,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4606,7 +4664,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -4617,7 +4675,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -4626,7 +4684,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -4635,7 +4693,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -4644,7 +4702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -4653,7 +4711,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -4662,7 +4720,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -4671,7 +4729,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -4682,7 +4740,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -4691,7 +4749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -4700,7 +4758,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -4709,7 +4767,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -4718,7 +4776,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -4727,7 +4785,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -4738,7 +4796,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -4747,7 +4805,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -4756,7 +4814,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -4765,7 +4823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -4774,7 +4832,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -4783,7 +4841,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -4794,7 +4852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -4803,7 +4861,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -4812,7 +4870,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -4821,7 +4879,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -4831,7 +4889,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -4840,7 +4898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -4850,7 +4908,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -4859,7 +4917,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -4870,7 +4928,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -4879,7 +4937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -4888,7 +4946,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -4899,7 +4957,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -4908,7 +4966,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -4918,7 +4976,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -4927,7 +4985,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -4936,7 +4994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -4946,7 +5004,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -4955,7 +5013,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -4964,7 +5022,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -4973,7 +5031,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -4982,7 +5040,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -4993,7 +5051,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5002,7 +5060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5012,7 +5070,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5022,7 +5080,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5031,88 +5089,218 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
-      <c r="B82" s="109" t="s">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="90"/>
+      <c r="B82" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="105" t="s">
+      <c r="C82" s="96" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="110">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="94">
         <v>44946</v>
       </c>
-      <c r="B83" s="107" t="s">
+      <c r="B83" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="C83" s="96" t="s">
+      <c r="C83" s="95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="107" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="90"/>
+      <c r="B84" s="99" t="s">
         <v>399</v>
       </c>
-      <c r="C84" s="111" t="s">
+      <c r="C84" s="96" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="107" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="90"/>
+      <c r="B85" s="99" t="s">
         <v>400</v>
       </c>
-      <c r="C85" s="111" t="s">
+      <c r="C85" s="96" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="112" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="90"/>
+      <c r="B86" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="111" t="s">
+      <c r="C86" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="107" t="s">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="90"/>
+      <c r="B87" s="99" t="s">
         <v>401</v>
       </c>
-      <c r="C87" s="111" t="s">
+      <c r="C87" s="96" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" s="107" t="s">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="90"/>
+      <c r="B88" s="99" t="s">
         <v>404</v>
       </c>
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="96" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="107" t="s">
+      <c r="E88" s="107"/>
+    </row>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="90"/>
+      <c r="B89" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C89" s="111" t="s">
+      <c r="C89" s="96" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="107" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="90"/>
+      <c r="B90" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="111" t="s">
+      <c r="C90" s="96" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="107">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="C91" s="111" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="90"/>
+      <c r="B91" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="C91" s="96" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="90"/>
+      <c r="B92" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="C92" s="96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="90"/>
+      <c r="B93" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="C93" s="96" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="94">
+        <v>44949</v>
+      </c>
+      <c r="B94" s="104" t="s">
+        <v>414</v>
+      </c>
+      <c r="C94" s="95" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="90"/>
+      <c r="B95" s="99" t="s">
+        <v>415</v>
+      </c>
+      <c r="C95" s="93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="90"/>
+      <c r="B96" s="99" t="s">
+        <v>417</v>
+      </c>
+      <c r="C96" s="96" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="90"/>
+      <c r="B97" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="90"/>
+      <c r="B98" s="99" t="s">
+        <v>419</v>
+      </c>
+      <c r="C98" s="96" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="90"/>
+      <c r="B99" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C99" s="96" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="91"/>
+      <c r="B100" s="109" t="s">
+        <v>422</v>
+      </c>
+      <c r="C100" s="105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="94">
+        <v>44950</v>
+      </c>
+      <c r="B101" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="111" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="90"/>
+      <c r="B102" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="90"/>
+      <c r="B103" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="C103" s="110" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="91"/>
+      <c r="B104" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="112" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1102E-29EC-44DA-B827-9EE2E5396F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35DBD36-DF3B-4129-9727-ADCD1DA6E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="440">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1316,6 +1316,48 @@
   </si>
   <si>
     <t>1:30-4:00</t>
+  </si>
+  <si>
+    <t>8:30-10:7</t>
+  </si>
+  <si>
+    <t>Reunión informal con desarrolladores y lider(tema azure y las pruebas)</t>
+  </si>
+  <si>
+    <t>10:7-10:30</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio block Seat</t>
+  </si>
+  <si>
+    <t>10:30-12:05</t>
+  </si>
+  <si>
+    <t>Reunión spring</t>
+  </si>
+  <si>
+    <t>12:05-12:30</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio block Seat(continuación)</t>
+  </si>
+  <si>
+    <t>2:30-3:00</t>
+  </si>
+  <si>
+    <t>Analizando con Gianni lo que se iva a probar en eGate1</t>
+  </si>
+  <si>
+    <t>3:00-4:16</t>
+  </si>
+  <si>
+    <t>Pruebas en eGate1</t>
+  </si>
+  <si>
+    <t>4:16-5:30</t>
+  </si>
+  <si>
+    <t>Actualizar documento de pruebas de las pasarelas 1 y 2 y subir NC a Azure</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2099,12 +2141,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4312,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5272,7 +5317,7 @@
       <c r="B101" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="111" t="s">
+      <c r="C101" s="95" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5281,7 +5326,7 @@
       <c r="B102" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="110" t="s">
+      <c r="C102" s="96" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5290,7 +5335,7 @@
       <c r="B103" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="C103" s="110" t="s">
+      <c r="C103" s="96" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5299,8 +5344,91 @@
       <c r="B104" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="112" t="s">
+      <c r="C104" s="105" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="94">
+        <v>44951</v>
+      </c>
+      <c r="B105" s="112" t="s">
+        <v>426</v>
+      </c>
+      <c r="C105" s="113" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="90"/>
+      <c r="B106" s="110" t="s">
+        <v>428</v>
+      </c>
+      <c r="C106" s="111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="90"/>
+      <c r="B107" s="110" t="s">
+        <v>430</v>
+      </c>
+      <c r="C107" s="111" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="90"/>
+      <c r="B108" s="110" t="s">
+        <v>432</v>
+      </c>
+      <c r="C108" s="111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="90"/>
+      <c r="B109" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="90"/>
+      <c r="B110" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="90"/>
+      <c r="B111" s="110" t="s">
+        <v>434</v>
+      </c>
+      <c r="C111" s="111" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="90"/>
+      <c r="B112" s="110" t="s">
+        <v>436</v>
+      </c>
+      <c r="C112" s="111" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="91"/>
+      <c r="B113" s="114" t="s">
+        <v>438</v>
+      </c>
+      <c r="C113" s="115" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35DBD36-DF3B-4129-9727-ADCD1DA6E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAD3EEA-5101-41AE-8F19-4763A2D83146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="442">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1315,9 +1315,6 @@
     <t>Investigando como generar reporte html de selenium con azure</t>
   </si>
   <si>
-    <t>1:30-4:00</t>
-  </si>
-  <si>
     <t>8:30-10:7</t>
   </si>
   <si>
@@ -1358,6 +1355,15 @@
   </si>
   <si>
     <t>Actualizar documento de pruebas de las pasarelas 1 y 2 y subir NC a Azure</t>
+  </si>
+  <si>
+    <t>1:30-3:20</t>
+  </si>
+  <si>
+    <t>3:20-3:50</t>
+  </si>
+  <si>
+    <t>Reunión con Gianni y martin en teams</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2143,14 +2149,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4357,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5333,102 +5331,111 @@
     <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C103" s="96" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="91"/>
-      <c r="B104" s="103" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="90"/>
+      <c r="B104" s="110" t="s">
+        <v>440</v>
+      </c>
+      <c r="C104" s="111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="91"/>
+      <c r="B105" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="105" t="s">
+      <c r="C105" s="105" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="94">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="94">
         <v>44951</v>
       </c>
-      <c r="B105" s="112" t="s">
+      <c r="B106" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" s="95" t="s">
         <v>426</v>
-      </c>
-      <c r="C105" s="113" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="110" t="s">
-        <v>428</v>
-      </c>
-      <c r="C106" s="111" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="90"/>
-      <c r="B107" s="110" t="s">
-        <v>430</v>
-      </c>
-      <c r="C107" s="111" t="s">
-        <v>431</v>
+      <c r="B107" s="98" t="s">
+        <v>427</v>
+      </c>
+      <c r="C107" s="96" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="90"/>
-      <c r="B108" s="110" t="s">
-        <v>432</v>
-      </c>
-      <c r="C108" s="111" t="s">
-        <v>433</v>
+      <c r="B108" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="C108" s="96" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
-      <c r="B109" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="111" t="s">
-        <v>20</v>
+      <c r="B109" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="C109" s="96" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="90"/>
-      <c r="B110" s="110" t="s">
+      <c r="B110" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="90"/>
+      <c r="B111" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="111" t="s">
+      <c r="C111" s="96" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="90"/>
+      <c r="B112" s="98" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="110" t="s">
+      <c r="C112" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="C111" s="111" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="90"/>
+      <c r="B113" s="98" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="90"/>
-      <c r="B112" s="110" t="s">
+      <c r="C113" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="C112" s="111" t="s">
+    </row>
+    <row r="114" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="91"/>
+      <c r="B114" s="103" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="91"/>
-      <c r="B113" s="114" t="s">
+      <c r="C114" s="105" t="s">
         <v>438</v>
-      </c>
-      <c r="C113" s="115" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAD3EEA-5101-41AE-8F19-4763A2D83146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724A300-FD6D-4B43-9579-E8EEB3AF817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="447">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1364,6 +1364,21 @@
   </si>
   <si>
     <t>Reunión con Gianni y martin en teams</t>
+  </si>
+  <si>
+    <t>Reunión con Fabian, Navid y Andres explicando como quiere que planifiquemos las tareas en sprint</t>
+  </si>
+  <si>
+    <t>10:30-10:54</t>
+  </si>
+  <si>
+    <t>9:30-10:30</t>
+  </si>
+  <si>
+    <t>10:54-2:00</t>
+  </si>
+  <si>
+    <t>Corrección de NC en azure para el servicio IntelliPocResponses porque identifique con que parámetros funciona correctamente</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2147,8 +2162,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4355,10 +4374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5339,10 +5358,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="90"/>
-      <c r="B104" s="110" t="s">
+      <c r="B104" s="98" t="s">
         <v>440</v>
       </c>
-      <c r="C104" s="111" t="s">
+      <c r="C104" s="96" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5420,7 +5439,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5429,13 +5448,70 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="91"/>
-      <c r="B114" s="103" t="s">
+    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="90"/>
+      <c r="B114" s="98" t="s">
         <v>437</v>
       </c>
-      <c r="C114" s="105" t="s">
+      <c r="C114" s="96" t="s">
         <v>438</v>
+      </c>
+      <c r="H114" s="33"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="94">
+        <v>44952</v>
+      </c>
+      <c r="B115" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="C115" s="95" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="90"/>
+      <c r="B116" s="99" t="s">
+        <v>443</v>
+      </c>
+      <c r="C116" s="110" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="90"/>
+      <c r="B117" s="99" t="s">
+        <v>445</v>
+      </c>
+      <c r="C117" s="96" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="90"/>
+      <c r="B118" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="110" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="90"/>
+      <c r="B119" s="111" t="s">
+        <v>396</v>
+      </c>
+      <c r="C119" s="96" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="91"/>
+      <c r="B120" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="113" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724A300-FD6D-4B43-9579-E8EEB3AF817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E058CFE6-E653-498D-B4EF-C6BDA049B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="462">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1379,6 +1379,51 @@
   </si>
   <si>
     <t>Corrección de NC en azure para el servicio IntelliPocResponses porque identifique con que parámetros funciona correctamente</t>
+  </si>
+  <si>
+    <t>8:30-9:30</t>
+  </si>
+  <si>
+    <t>Pruebas a la eGate1</t>
+  </si>
+  <si>
+    <t>9:30-10:24</t>
+  </si>
+  <si>
+    <t>10:24-11:50</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio blockSeat(continuación)</t>
+  </si>
+  <si>
+    <t>11:50-12:27</t>
+  </si>
+  <si>
+    <t>Adicionando pruebas al servicio getFlightCrew</t>
+  </si>
+  <si>
+    <t>12:27-1:27</t>
+  </si>
+  <si>
+    <t>1:27-2:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de nuevas NC (servicio IntelliPocResponses y DeleteCrew) </t>
+  </si>
+  <si>
+    <t>2:20-2:40</t>
+  </si>
+  <si>
+    <t>Aumentando script de prueba en el servicio BlockSeat</t>
+  </si>
+  <si>
+    <t>3:15-3:45</t>
+  </si>
+  <si>
+    <t>3:45-6:00</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio blockSeat(continuación) y subir NC a Azure</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2162,10 +2207,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4374,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5474,7 +5523,7 @@
       <c r="B116" s="99" t="s">
         <v>443</v>
       </c>
-      <c r="C116" s="110" t="s">
+      <c r="C116" s="96" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5492,13 +5541,13 @@
       <c r="B118" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="110" t="s">
+      <c r="C118" s="96" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="90"/>
-      <c r="B119" s="111" t="s">
+      <c r="B119" s="99" t="s">
         <v>396</v>
       </c>
       <c r="C119" s="96" t="s">
@@ -5507,12 +5556,100 @@
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="91"/>
-      <c r="B120" s="112" t="s">
+      <c r="B120" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="113" t="s">
+      <c r="C120" s="105" t="s">
         <v>295</v>
       </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="94">
+        <v>44953</v>
+      </c>
+      <c r="B121" s="112" t="s">
+        <v>447</v>
+      </c>
+      <c r="C121" s="113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="90"/>
+      <c r="B122" s="110" t="s">
+        <v>449</v>
+      </c>
+      <c r="C122" s="111" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="90"/>
+      <c r="B123" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="C123" s="111" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="90"/>
+      <c r="B124" s="110" t="s">
+        <v>452</v>
+      </c>
+      <c r="C124" s="111" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="90"/>
+      <c r="B125" s="110" t="s">
+        <v>454</v>
+      </c>
+      <c r="C125" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="33"/>
+    </row>
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="90"/>
+      <c r="B126" s="110" t="s">
+        <v>455</v>
+      </c>
+      <c r="C126" s="111" t="s">
+        <v>456</v>
+      </c>
+      <c r="E126" s="33"/>
+    </row>
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="90"/>
+      <c r="B127" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="C127" s="111" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="90"/>
+      <c r="B128" s="110" t="s">
+        <v>459</v>
+      </c>
+      <c r="C128" s="111" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="91"/>
+      <c r="B129" s="114" t="s">
+        <v>460</v>
+      </c>
+      <c r="C129" s="115" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E058CFE6-E653-498D-B4EF-C6BDA049B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6651626-EE3F-4293-AE79-9BDD42E56FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="467">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1424,6 +1424,21 @@
   </si>
   <si>
     <t>Pruebas al servicio blockSeat(continuación) y subir NC a Azure</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio GetBlockedSeatsByData</t>
+  </si>
+  <si>
+    <t>8:30-11:30</t>
+  </si>
+  <si>
+    <t>11:30-1:30</t>
+  </si>
+  <si>
+    <t>Medico</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio GetBlockedSeatsByData, subiendo NC a Azure y generando reporte Newman</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2207,18 +2222,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4423,10 +4437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5567,89 +5581,116 @@
       <c r="A121" s="94">
         <v>44953</v>
       </c>
-      <c r="B121" s="112" t="s">
+      <c r="B121" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="C121" s="113" t="s">
+      <c r="C121" s="95" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="90"/>
-      <c r="B122" s="110" t="s">
+      <c r="B122" s="99" t="s">
         <v>449</v>
       </c>
-      <c r="C122" s="111" t="s">
+      <c r="C122" s="96" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="90"/>
-      <c r="B123" s="110" t="s">
+      <c r="B123" s="99" t="s">
         <v>450</v>
       </c>
-      <c r="C123" s="111" t="s">
+      <c r="C123" s="96" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="90"/>
-      <c r="B124" s="110" t="s">
+      <c r="B124" s="99" t="s">
         <v>452</v>
       </c>
-      <c r="C124" s="111" t="s">
+      <c r="C124" s="96" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="90"/>
-      <c r="B125" s="110" t="s">
+      <c r="B125" s="99" t="s">
         <v>454</v>
       </c>
-      <c r="C125" s="111" t="s">
+      <c r="C125" s="96" t="s">
         <v>20</v>
       </c>
       <c r="G125" s="33"/>
     </row>
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="90"/>
-      <c r="B126" s="110" t="s">
+      <c r="B126" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="C126" s="111" t="s">
+      <c r="C126" s="96" t="s">
         <v>456</v>
       </c>
       <c r="E126" s="33"/>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="90"/>
-      <c r="B127" s="110" t="s">
+      <c r="B127" s="99" t="s">
         <v>457</v>
       </c>
-      <c r="C127" s="111" t="s">
+      <c r="C127" s="96" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="90"/>
-      <c r="B128" s="110" t="s">
+      <c r="B128" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="C128" s="111" t="s">
+      <c r="C128" s="96" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="91"/>
-      <c r="B129" s="114" t="s">
+      <c r="A129" s="90"/>
+      <c r="B129" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="C129" s="115" t="s">
+      <c r="C129" s="96" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="94">
+        <v>44956</v>
+      </c>
+      <c r="B130" s="104" t="s">
+        <v>463</v>
+      </c>
+      <c r="C130" s="111" t="s">
+        <v>462</v>
+      </c>
       <c r="E130" s="33"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="90"/>
+      <c r="B131" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="C131" s="110" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="91"/>
+      <c r="B132" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="112" t="s">
+        <v>466</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6651626-EE3F-4293-AE79-9BDD42E56FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38B24A-1068-40FE-85FF-A09D5A1010D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="471">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1439,6 +1439,18 @@
   </si>
   <si>
     <t>Pruebas al servicio GetBlockedSeatsByData, subiendo NC a Azure y generando reporte Newman</t>
+  </si>
+  <si>
+    <t>8:30-12:00</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio GetBlockedSeatByData</t>
+  </si>
+  <si>
+    <t>1:00-5:30</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio GetBlockedSeatByData, subiendo NC a Azure y generando reporte Newman</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2222,16 +2234,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4437,10 +4444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5669,27 +5676,56 @@
       <c r="B130" s="104" t="s">
         <v>463</v>
       </c>
-      <c r="C130" s="111" t="s">
+      <c r="C130" s="95" t="s">
         <v>462</v>
       </c>
       <c r="E130" s="33"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="90"/>
-      <c r="B131" s="113" t="s">
+      <c r="B131" s="99" t="s">
         <v>464</v>
       </c>
-      <c r="C131" s="110" t="s">
+      <c r="C131" s="96" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="91"/>
-      <c r="B132" s="114" t="s">
+      <c r="B132" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="112" t="s">
+      <c r="C132" s="105" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="94">
+        <v>44957</v>
+      </c>
+      <c r="B133" s="112" t="s">
+        <v>467</v>
+      </c>
+      <c r="C133" s="95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="90"/>
+      <c r="B134" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="91"/>
+      <c r="B135" s="113" t="s">
+        <v>469</v>
+      </c>
+      <c r="C135" s="105" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38B24A-1068-40FE-85FF-A09D5A1010D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F76D3-A1A4-4F9B-9DDD-78D314530F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
     <sheet name="Diciembre" sheetId="2" r:id="rId2"/>
     <sheet name="Enero" sheetId="3" r:id="rId3"/>
+    <sheet name="Febrero" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="479">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1451,6 +1452,30 @@
   </si>
   <si>
     <t>Pruebas al servicio GetBlockedSeatByData, subiendo NC a Azure y generando reporte Newman</t>
+  </si>
+  <si>
+    <t>generando juegos de datos para pruebas a endpoint UnblockSeat y entendiendo de que va</t>
+  </si>
+  <si>
+    <t>1:04-2:04</t>
+  </si>
+  <si>
+    <t>Generando script de prueba para el servicio UnblockSeat y actualizando otros servicios(GetBlockedSeatsByData, GetBlockedSeatByData)</t>
+  </si>
+  <si>
+    <t>8:30-11:00</t>
+  </si>
+  <si>
+    <t>11:00-1:04</t>
+  </si>
+  <si>
+    <t>Subiendo NC a Azure</t>
+  </si>
+  <si>
+    <t>2:04-4:53</t>
+  </si>
+  <si>
+    <t>Comentando el código de postman para que sea prolijo</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2234,12 +2259,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2657,14 +2679,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2684,21 +2706,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2707,14 +2729,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2723,14 +2745,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -2739,14 +2761,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -2755,7 +2777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -2764,14 +2786,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -2780,14 +2802,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -2798,7 +2820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -2807,7 +2829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2816,7 +2838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -2825,7 +2847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -2834,7 +2856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -2843,7 +2865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -2852,7 +2874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -2863,7 +2885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -2872,7 +2894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -2881,7 +2903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -2890,7 +2912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -2899,7 +2921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -2908,7 +2930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -2917,7 +2939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -2926,7 +2948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -2935,7 +2957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -2946,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -2955,7 +2977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -2964,7 +2986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -2973,7 +2995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -2982,7 +3004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -2991,7 +3013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3000,7 +3022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3009,7 +3031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3018,7 +3040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3027,7 +3049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3036,7 +3058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3045,7 +3067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3054,7 +3076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3065,7 +3087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3074,7 +3096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3083,7 +3105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3092,7 +3114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3101,7 +3123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3110,7 +3132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3121,7 +3143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3130,7 +3152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3139,7 +3161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3148,7 +3170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3157,7 +3179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3166,7 +3188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3177,7 +3199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3186,7 +3208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3195,7 +3217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3204,7 +3226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3214,7 +3236,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3223,7 +3245,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3234,7 +3256,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3243,7 +3265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3252,7 +3274,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3263,7 +3285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3272,7 +3294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3281,7 +3303,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3292,7 +3314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3301,7 +3323,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3310,7 +3332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3319,7 +3341,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3328,7 +3350,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3337,7 +3359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3346,7 +3368,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3357,7 +3379,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3366,7 +3388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3375,7 +3397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3386,7 +3408,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3395,7 +3417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3404,7 +3426,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3430,14 +3452,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3448,7 +3470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3459,7 +3481,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3468,7 +3490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3477,7 +3499,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3488,7 +3510,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3497,7 +3519,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3506,7 +3528,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3517,7 +3539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3526,7 +3548,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3535,7 +3557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3544,7 +3566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3553,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3562,7 +3584,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3573,7 +3595,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3582,7 +3604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3591,7 +3613,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3600,7 +3622,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3609,7 +3631,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3618,7 +3640,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3627,7 +3649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3636,7 +3658,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3647,7 +3669,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3656,7 +3678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3665,7 +3687,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3674,7 +3696,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3683,7 +3705,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3694,7 +3716,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3703,7 +3725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3712,7 +3734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3721,7 +3743,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3732,7 +3754,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -3741,7 +3763,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -3750,7 +3772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -3759,7 +3781,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -3770,7 +3792,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -3779,7 +3801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -3788,7 +3810,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -3797,7 +3819,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -3806,7 +3828,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -3815,7 +3837,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -3826,7 +3848,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -3835,7 +3857,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -3844,7 +3866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -3853,7 +3875,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -3862,7 +3884,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -3871,7 +3893,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -3880,7 +3902,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -3891,7 +3913,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -3900,7 +3922,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -3909,7 +3931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -3918,7 +3940,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -3929,7 +3951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -3938,7 +3960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -3947,7 +3969,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -3956,7 +3978,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -3967,7 +3989,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -3976,7 +3998,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -3985,7 +4007,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -3994,7 +4016,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4003,7 +4025,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4014,7 +4036,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4023,7 +4045,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4032,7 +4054,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4041,7 +4063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4050,7 +4072,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4061,7 +4083,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4070,7 +4092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4079,7 +4101,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4088,7 +4110,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4099,7 +4121,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4108,7 +4130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4117,7 +4139,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4126,7 +4148,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4135,7 +4157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4144,7 +4166,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4153,7 +4175,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4164,7 +4186,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4173,7 +4195,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4182,7 +4204,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4193,7 +4215,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4202,7 +4224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4211,7 +4233,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4220,7 +4242,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4229,7 +4251,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4238,7 +4260,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4249,7 +4271,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4258,7 +4280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4267,7 +4289,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4278,7 +4300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4287,7 +4309,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4296,7 +4318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4305,7 +4327,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4314,7 +4336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4323,7 +4345,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4334,7 +4356,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4343,7 +4365,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4352,7 +4374,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4361,7 +4383,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4370,7 +4392,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4379,7 +4401,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4390,7 +4412,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4399,7 +4421,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4408,7 +4430,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4419,7 +4441,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4428,7 +4450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4446,18 +4468,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80819AD-073B-4223-840B-D30427A93CF6}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4468,7 +4490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4479,7 +4501,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4488,7 +4510,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4497,7 +4519,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4506,7 +4528,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4515,7 +4537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4524,7 +4546,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4533,7 +4555,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4543,7 +4565,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4552,7 +4574,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4563,7 +4585,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4572,7 +4594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4581,7 +4603,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4590,7 +4612,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4601,7 +4623,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4610,7 +4632,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4619,7 +4641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4628,7 +4650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4637,7 +4659,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4646,7 +4668,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4655,7 +4677,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4666,7 +4688,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4675,7 +4697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4684,7 +4706,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4693,7 +4715,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4704,7 +4726,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4713,7 +4735,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4722,7 +4744,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4731,7 +4753,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -4740,7 +4762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -4749,7 +4771,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -4758,7 +4780,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -4769,7 +4791,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -4778,7 +4800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -4787,7 +4809,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4796,7 +4818,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -4807,7 +4829,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -4816,7 +4838,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -4825,7 +4847,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -4834,7 +4856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -4843,7 +4865,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -4852,7 +4874,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -4861,7 +4883,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -4872,7 +4894,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -4881,7 +4903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -4890,7 +4912,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -4899,7 +4921,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -4908,7 +4930,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -4917,7 +4939,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -4928,7 +4950,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -4937,7 +4959,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -4946,7 +4968,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -4955,7 +4977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -4964,7 +4986,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -4973,7 +4995,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -4984,7 +5006,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -4993,7 +5015,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5002,7 +5024,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5011,7 +5033,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5021,7 +5043,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5030,7 +5052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5040,7 +5062,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5049,7 +5071,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5060,7 +5082,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5069,7 +5091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5078,7 +5100,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5089,7 +5111,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5098,7 +5120,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5108,7 +5130,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5117,7 +5139,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5126,7 +5148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5136,7 +5158,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5145,7 +5167,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5154,7 +5176,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5163,7 +5185,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5172,7 +5194,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5183,7 +5205,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5192,7 +5214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5202,7 +5224,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5212,7 +5234,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5221,7 +5243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5230,7 +5252,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5241,7 +5263,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5250,7 +5272,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5259,7 +5281,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5268,7 +5290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5277,7 +5299,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5287,7 +5309,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5296,7 +5318,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5305,7 +5327,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5314,7 +5336,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5323,7 +5345,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5332,7 +5354,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5343,7 +5365,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5352,7 +5374,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5361,7 +5383,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5370,7 +5392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5379,7 +5401,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5388,7 +5410,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5397,7 +5419,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5408,7 +5430,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5417,7 +5439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5426,7 +5448,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5435,7 +5457,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5444,7 +5466,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5455,7 +5477,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5464,7 +5486,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5473,7 +5495,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5482,7 +5504,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5491,7 +5513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5500,7 +5522,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5509,7 +5531,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5518,7 +5540,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5528,7 +5550,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5539,7 +5561,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5548,7 +5570,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5557,7 +5579,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5566,7 +5588,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5575,7 +5597,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5584,7 +5606,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5595,7 +5617,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5604,7 +5626,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5613,7 +5635,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5622,7 +5644,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5632,7 +5654,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5642,7 +5664,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5651,7 +5673,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5660,7 +5682,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5669,7 +5691,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -5681,7 +5703,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -5690,7 +5712,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -5699,29 +5721,29 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
-      <c r="B133" s="112" t="s">
+      <c r="B133" s="104" t="s">
         <v>467</v>
       </c>
       <c r="C133" s="95" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="90"/>
-      <c r="B134" s="110" t="s">
+      <c r="B134" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C134" s="111" t="s">
+      <c r="C134" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="91"/>
-      <c r="B135" s="113" t="s">
+      <c r="B135" s="109" t="s">
         <v>469</v>
       </c>
       <c r="C135" s="105" t="s">
@@ -5733,4 +5755,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="74">
+        <v>44958</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="107">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F76D3-A1A4-4F9B-9DDD-78D314530F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288D143-0E3B-47E0-9BC7-5B389ACA62A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="488">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1454,9 +1454,6 @@
     <t>Pruebas al servicio GetBlockedSeatByData, subiendo NC a Azure y generando reporte Newman</t>
   </si>
   <si>
-    <t>generando juegos de datos para pruebas a endpoint UnblockSeat y entendiendo de que va</t>
-  </si>
-  <si>
     <t>1:04-2:04</t>
   </si>
   <si>
@@ -1472,10 +1469,40 @@
     <t>Subiendo NC a Azure</t>
   </si>
   <si>
-    <t>2:04-4:53</t>
-  </si>
-  <si>
     <t>Comentando el código de postman para que sea prolijo</t>
+  </si>
+  <si>
+    <t>Generando juegos de datos para pruebas a endpoint UnblockSeat y entendiendo de que va</t>
+  </si>
+  <si>
+    <t>2:04-5:30</t>
+  </si>
+  <si>
+    <t>9:30-10:45</t>
+  </si>
+  <si>
+    <t>10:45-11:00</t>
+  </si>
+  <si>
+    <t>Reflejando en el json para cada juego de dato las solicitudes que se van a ejecutar</t>
+  </si>
+  <si>
+    <t>11:00-12:37</t>
+  </si>
+  <si>
+    <t>Ejecución de las pruebas con postman para ver que el cambio en el json no haya afectado la ejecución de las pruebas</t>
+  </si>
+  <si>
+    <t>12:37-12:47</t>
+  </si>
+  <si>
+    <t>12:47-1:20</t>
+  </si>
+  <si>
+    <t>1:20-4:00</t>
+  </si>
+  <si>
+    <t>Organizando el json para mejor entendimiento(no terminado)</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +2009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2259,7 +2286,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2675,18 +2717,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2697,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2706,21 +2748,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2729,14 +2771,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2745,14 +2787,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -2761,14 +2803,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -2777,7 +2819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -2786,14 +2828,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -2802,14 +2844,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -2820,7 +2862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -2829,7 +2871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2838,7 +2880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -2847,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -2856,7 +2898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -2865,7 +2907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -2874,7 +2916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -2885,7 +2927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -2894,7 +2936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -2903,7 +2945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -2912,7 +2954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -2921,7 +2963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -2930,7 +2972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -2939,7 +2981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -2948,7 +2990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -2957,7 +2999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -2968,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -2977,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -2986,7 +3028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -2995,7 +3037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3004,7 +3046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3013,7 +3055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3022,7 +3064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3031,7 +3073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3040,7 +3082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3049,7 +3091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3058,7 +3100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3067,7 +3109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3076,7 +3118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3087,7 +3129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3096,7 +3138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3105,7 +3147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3114,7 +3156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3123,7 +3165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3132,7 +3174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3143,7 +3185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3152,7 +3194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3161,7 +3203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3170,7 +3212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3179,7 +3221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3188,7 +3230,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3199,7 +3241,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3208,7 +3250,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3217,7 +3259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3226,7 +3268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3236,7 +3278,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3245,7 +3287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3256,7 +3298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3265,7 +3307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3274,7 +3316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3285,7 +3327,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3294,7 +3336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3303,7 +3345,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3314,7 +3356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3323,7 +3365,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3332,7 +3374,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3341,7 +3383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3350,7 +3392,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3359,7 +3401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3368,7 +3410,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3379,7 +3421,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3388,7 +3430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3397,7 +3439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3408,7 +3450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3417,7 +3459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3426,7 +3468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3452,14 +3494,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3470,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3481,7 +3523,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3490,7 +3532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3499,7 +3541,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3510,7 +3552,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3519,7 +3561,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3528,7 +3570,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3539,7 +3581,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3548,7 +3590,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3557,7 +3599,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3566,7 +3608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3575,7 +3617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3584,7 +3626,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3595,7 +3637,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3604,7 +3646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3613,7 +3655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3622,7 +3664,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3631,7 +3673,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3640,7 +3682,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3649,7 +3691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3658,7 +3700,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3669,7 +3711,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3678,7 +3720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3687,7 +3729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3696,7 +3738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3705,7 +3747,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3716,7 +3758,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3725,7 +3767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3734,7 +3776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3743,7 +3785,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3754,7 +3796,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -3763,7 +3805,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -3772,7 +3814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -3781,7 +3823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -3792,7 +3834,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -3801,7 +3843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -3810,7 +3852,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -3819,7 +3861,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -3828,7 +3870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -3837,7 +3879,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -3848,7 +3890,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -3857,7 +3899,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -3866,7 +3908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -3875,7 +3917,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -3884,7 +3926,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -3893,7 +3935,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -3902,7 +3944,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -3913,7 +3955,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -3922,7 +3964,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -3931,7 +3973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -3940,7 +3982,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -3951,7 +3993,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -3960,7 +4002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -3969,7 +4011,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -3978,7 +4020,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -3989,7 +4031,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -3998,7 +4040,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4007,7 +4049,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4016,7 +4058,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4025,7 +4067,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4036,7 +4078,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4045,7 +4087,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4054,7 +4096,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4063,7 +4105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4072,7 +4114,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4083,7 +4125,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4092,7 +4134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4101,7 +4143,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4110,7 +4152,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4121,7 +4163,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4130,7 +4172,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4139,7 +4181,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4148,7 +4190,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4157,7 +4199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4166,7 +4208,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4175,7 +4217,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4186,7 +4228,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4195,7 +4237,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4204,7 +4246,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4215,7 +4257,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4224,7 +4266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4233,7 +4275,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4242,7 +4284,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4251,7 +4293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4260,7 +4302,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4271,7 +4313,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4280,7 +4322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4289,7 +4331,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4300,7 +4342,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4309,7 +4351,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4318,7 +4360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4327,7 +4369,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4336,7 +4378,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4345,7 +4387,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4356,7 +4398,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4365,7 +4407,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4374,7 +4416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4383,7 +4425,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4392,7 +4434,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4401,7 +4443,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4412,7 +4454,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4421,7 +4463,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4430,7 +4472,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4441,7 +4483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4450,7 +4492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4472,14 +4514,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4490,7 +4532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4501,7 +4543,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4510,7 +4552,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4519,7 +4561,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4528,7 +4570,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4537,7 +4579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4546,7 +4588,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4555,7 +4597,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4565,7 +4607,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4574,7 +4616,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4585,7 +4627,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4594,7 +4636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4603,7 +4645,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4612,7 +4654,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4623,7 +4665,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4632,7 +4674,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4641,7 +4683,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4650,7 +4692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4659,7 +4701,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4668,7 +4710,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4677,7 +4719,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4688,7 +4730,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4697,7 +4739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4706,7 +4748,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4715,7 +4757,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4726,7 +4768,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4735,7 +4777,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4744,7 +4786,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4753,7 +4795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -4762,7 +4804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -4771,7 +4813,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -4780,7 +4822,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -4791,7 +4833,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -4800,7 +4842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -4809,7 +4851,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4818,7 +4860,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -4829,7 +4871,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -4838,7 +4880,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -4847,7 +4889,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -4856,7 +4898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -4865,7 +4907,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -4874,7 +4916,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -4883,7 +4925,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -4894,7 +4936,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -4903,7 +4945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -4912,7 +4954,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -4921,7 +4963,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -4930,7 +4972,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -4939,7 +4981,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -4950,7 +4992,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -4959,7 +5001,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -4968,7 +5010,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -4977,7 +5019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -4986,7 +5028,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -4995,7 +5037,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5006,7 +5048,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5015,7 +5057,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5024,7 +5066,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5033,7 +5075,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5043,7 +5085,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5052,7 +5094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5062,7 +5104,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5071,7 +5113,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5082,7 +5124,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5091,7 +5133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5100,7 +5142,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5111,7 +5153,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5120,7 +5162,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5130,7 +5172,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5139,7 +5181,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5148,7 +5190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5158,7 +5200,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5167,7 +5209,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5176,7 +5218,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5185,7 +5227,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5194,7 +5236,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5205,7 +5247,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5214,7 +5256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5224,7 +5266,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5234,7 +5276,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5243,7 +5285,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5252,7 +5294,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5263,7 +5305,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5272,7 +5314,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5281,7 +5323,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5290,7 +5332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5299,7 +5341,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5309,7 +5351,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5318,7 +5360,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5327,7 +5369,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5336,7 +5378,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5345,7 +5387,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5354,7 +5396,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5365,7 +5407,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5374,7 +5416,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5383,7 +5425,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5392,7 +5434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5401,7 +5443,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5410,7 +5452,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5419,7 +5461,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5430,7 +5472,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5439,7 +5481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5448,7 +5490,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5457,7 +5499,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5466,7 +5508,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5477,7 +5519,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5486,7 +5528,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5495,7 +5537,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5504,7 +5546,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5513,7 +5555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5522,7 +5564,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5531,7 +5573,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5540,7 +5582,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5550,7 +5592,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5561,7 +5603,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5570,7 +5612,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5579,7 +5621,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5588,7 +5630,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5597,7 +5639,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5606,7 +5648,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5617,7 +5659,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5626,7 +5668,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5635,7 +5677,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5644,7 +5686,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5654,7 +5696,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5664,7 +5706,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5673,7 +5715,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5682,7 +5724,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5691,7 +5733,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -5703,7 +5745,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -5712,7 +5754,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -5721,7 +5763,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -5732,7 +5774,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -5741,7 +5783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -5759,20 +5801,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -5783,50 +5825,160 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="74">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="111">
         <v>44958</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="112" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="90"/>
+      <c r="B3" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C3" s="93" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="90"/>
+      <c r="B4" s="98" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="91"/>
+      <c r="B5" s="109" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="94">
+        <v>44959</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="106" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="90"/>
+      <c r="B8" s="99" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="90"/>
+      <c r="B9" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="114" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="116" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="107" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="107">
-        <v>0.20347222222222219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>478</v>
-      </c>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="90"/>
+      <c r="B11" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="91"/>
+      <c r="B12" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="98"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="98"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="98"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="98"/>
+      <c r="C16" s="33"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="98"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="98"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="98"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="98"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="98"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="98"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="98"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="98"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="98"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="98"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="98"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288D143-0E3B-47E0-9BC7-5B389ACA62A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C6082-D04F-4EED-9ECB-52C44A846D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="495">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1503,6 +1503,27 @@
   </si>
   <si>
     <t>Organizando el json para mejor entendimiento(no terminado)</t>
+  </si>
+  <si>
+    <t>Organizando el json para mejor entendimiento(terminado)</t>
+  </si>
+  <si>
+    <t>2:30-5:30</t>
+  </si>
+  <si>
+    <t>8:30-12:44</t>
+  </si>
+  <si>
+    <t>Pruebas a los servicios GetTransactionsByFlight y GetTransactionsByFlightWithoutPhotos</t>
+  </si>
+  <si>
+    <t>12:44-1:44</t>
+  </si>
+  <si>
+    <t>1:44-5:30</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio GetTransactionsBetweenDates(falta un detalle)</t>
   </si>
 </sst>
 </file>
@@ -2296,12 +2317,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2721,14 +2746,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2739,7 +2764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2748,21 +2773,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2771,14 +2796,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2787,14 +2812,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -2803,14 +2828,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -2819,7 +2844,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -2828,14 +2853,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -2844,14 +2869,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -2862,7 +2887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -2871,7 +2896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2880,7 +2905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -2889,7 +2914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -2898,7 +2923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -2907,7 +2932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -2916,7 +2941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -2927,7 +2952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -2936,7 +2961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -2945,7 +2970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -2954,7 +2979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -2963,7 +2988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -2972,7 +2997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -2981,7 +3006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -2990,7 +3015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -2999,7 +3024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3010,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3019,7 +3044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3028,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3037,7 +3062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3046,7 +3071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3055,7 +3080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3064,7 +3089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3073,7 +3098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3082,7 +3107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3091,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3100,7 +3125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3109,7 +3134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3118,7 +3143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3129,7 +3154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3138,7 +3163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3147,7 +3172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3156,7 +3181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3165,7 +3190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3174,7 +3199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3185,7 +3210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3194,7 +3219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3203,7 +3228,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3212,7 +3237,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3221,7 +3246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3230,7 +3255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3241,7 +3266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3250,7 +3275,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3259,7 +3284,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3268,7 +3293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3278,7 +3303,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3287,7 +3312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3298,7 +3323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3307,7 +3332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3316,7 +3341,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3327,7 +3352,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3336,7 +3361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3345,7 +3370,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3356,7 +3381,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3365,7 +3390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3374,7 +3399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3383,7 +3408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3392,7 +3417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3401,7 +3426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3410,7 +3435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3421,7 +3446,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3430,7 +3455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3439,7 +3464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3450,7 +3475,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3459,7 +3484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3468,7 +3493,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3494,14 +3519,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3512,7 +3537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3523,7 +3548,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3532,7 +3557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3541,7 +3566,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3552,7 +3577,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3561,7 +3586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3570,7 +3595,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3581,7 +3606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3590,7 +3615,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3599,7 +3624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3608,7 +3633,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3617,7 +3642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3626,7 +3651,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3637,7 +3662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3646,7 +3671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3655,7 +3680,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3664,7 +3689,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3673,7 +3698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3682,7 +3707,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3691,7 +3716,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3700,7 +3725,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3711,7 +3736,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3720,7 +3745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3729,7 +3754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3738,7 +3763,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3747,7 +3772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3758,7 +3783,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3767,7 +3792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3776,7 +3801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3785,7 +3810,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3796,7 +3821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -3805,7 +3830,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -3814,7 +3839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -3823,7 +3848,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -3834,7 +3859,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -3843,7 +3868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -3852,7 +3877,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -3861,7 +3886,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -3870,7 +3895,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -3879,7 +3904,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -3890,7 +3915,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -3899,7 +3924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -3908,7 +3933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -3917,7 +3942,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -3926,7 +3951,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -3935,7 +3960,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -3944,7 +3969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -3955,7 +3980,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -3964,7 +3989,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -3973,7 +3998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -3982,7 +4007,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -3993,7 +4018,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4002,7 +4027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4011,7 +4036,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4020,7 +4045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4031,7 +4056,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4040,7 +4065,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4049,7 +4074,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4058,7 +4083,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4067,7 +4092,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4078,7 +4103,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4087,7 +4112,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4096,7 +4121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4105,7 +4130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4114,7 +4139,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4125,7 +4150,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4134,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4143,7 +4168,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4152,7 +4177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4163,7 +4188,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4172,7 +4197,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4181,7 +4206,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4190,7 +4215,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4199,7 +4224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4208,7 +4233,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4217,7 +4242,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4228,7 +4253,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4237,7 +4262,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4246,7 +4271,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4257,7 +4282,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4266,7 +4291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4275,7 +4300,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4284,7 +4309,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4293,7 +4318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4302,7 +4327,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4313,7 +4338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4322,7 +4347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4331,7 +4356,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4342,7 +4367,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4351,7 +4376,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4360,7 +4385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4369,7 +4394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4378,7 +4403,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4387,7 +4412,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4398,7 +4423,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4407,7 +4432,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4416,7 +4441,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4425,7 +4450,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4434,7 +4459,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4443,7 +4468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4454,7 +4479,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4463,7 +4488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4472,7 +4497,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4483,7 +4508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4492,7 +4517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4514,14 +4539,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4532,7 +4557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4543,7 +4568,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4552,7 +4577,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4561,7 +4586,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4570,7 +4595,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4579,7 +4604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4588,7 +4613,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4597,7 +4622,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4607,7 +4632,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4616,7 +4641,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4627,7 +4652,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4636,7 +4661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4645,7 +4670,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4654,7 +4679,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4665,7 +4690,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4674,7 +4699,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4683,7 +4708,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4692,7 +4717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4701,7 +4726,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4710,7 +4735,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4719,7 +4744,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4730,7 +4755,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4739,7 +4764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4748,7 +4773,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4757,7 +4782,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4768,7 +4793,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4777,7 +4802,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4786,7 +4811,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4795,7 +4820,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -4804,7 +4829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -4813,7 +4838,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -4822,7 +4847,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -4833,7 +4858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -4842,7 +4867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -4851,7 +4876,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4860,7 +4885,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -4871,7 +4896,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -4880,7 +4905,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -4889,7 +4914,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -4898,7 +4923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -4907,7 +4932,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -4916,7 +4941,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -4925,7 +4950,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -4936,7 +4961,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -4945,7 +4970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -4954,7 +4979,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -4963,7 +4988,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -4972,7 +4997,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -4981,7 +5006,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -4992,7 +5017,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5001,7 +5026,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5010,7 +5035,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5019,7 +5044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5028,7 +5053,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5037,7 +5062,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5048,7 +5073,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5057,7 +5082,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5066,7 +5091,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5075,7 +5100,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5085,7 +5110,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5094,7 +5119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5104,7 +5129,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5113,7 +5138,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5124,7 +5149,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5133,7 +5158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5142,7 +5167,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5162,7 +5187,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5172,7 +5197,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5181,7 +5206,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5190,7 +5215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5200,7 +5225,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5209,7 +5234,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5218,7 +5243,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5227,7 +5252,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5236,7 +5261,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5247,7 +5272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5256,7 +5281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5266,7 +5291,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5276,7 +5301,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5285,7 +5310,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5294,7 +5319,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5305,7 +5330,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5314,7 +5339,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5323,7 +5348,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5332,7 +5357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5341,7 +5366,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5351,7 +5376,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5360,7 +5385,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5369,7 +5394,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5378,7 +5403,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5387,7 +5412,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5396,7 +5421,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5407,7 +5432,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5416,7 +5441,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5425,7 +5450,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5434,7 +5459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5443,7 +5468,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5452,7 +5477,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5461,7 +5486,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5472,7 +5497,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5481,7 +5506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5490,7 +5515,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5499,7 +5524,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5508,7 +5533,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5519,7 +5544,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5528,7 +5553,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5537,7 +5562,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5546,7 +5571,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5555,7 +5580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5564,7 +5589,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5573,7 +5598,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5582,7 +5607,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5592,7 +5617,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5603,7 +5628,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5612,7 +5637,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5621,7 +5646,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5630,7 +5655,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5639,7 +5664,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5648,7 +5673,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5659,7 +5684,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5668,7 +5693,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5677,7 +5702,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5686,7 +5711,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5696,7 +5721,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5706,7 +5731,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5715,7 +5740,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5724,7 +5749,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5733,7 +5758,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -5745,7 +5770,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -5754,7 +5779,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -5763,7 +5788,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -5774,7 +5799,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -5783,7 +5808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -5804,17 +5829,17 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -5825,7 +5850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="111">
         <v>44958</v>
       </c>
@@ -5836,7 +5861,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -5845,7 +5870,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -5854,7 +5879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -5863,7 +5888,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -5874,107 +5899,146 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="93" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="96" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="96" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="90"/>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="98" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="98" t="s">
         <v>486</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="96" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="105" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="94">
+        <v>44960</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91"/>
+      <c r="B15" s="103" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="94">
+        <v>44963</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="90"/>
+      <c r="B17" s="99" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="91"/>
+      <c r="B18" s="109" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="117" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="98"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="98"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="98"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="98"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="98"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="98"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="98"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="98"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="98"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="110"/>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C6082-D04F-4EED-9ECB-52C44A846D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB8C61F-76E5-4FE0-A52F-62F5F3EA1106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="501">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1523,7 +1523,25 @@
     <t>1:44-5:30</t>
   </si>
   <si>
-    <t>Pruebas al servicio GetTransactionsBetweenDates(falta un detalle)</t>
+    <t>Pruebas al servicio GetTransactionsBetweenDates(sin terminar)</t>
+  </si>
+  <si>
+    <t>9:30-2:00</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio GetTransactionsBetweenDates, subiendo NC a azure y generando reporte newman</t>
+  </si>
+  <si>
+    <t>2:00-2:10</t>
+  </si>
+  <si>
+    <t>Subir cambios a la nube</t>
+  </si>
+  <si>
+    <t>Entendiendo el servicio ProcessPocEmbarkPassenger y los valores que se le pasan por el body</t>
+  </si>
+  <si>
+    <t>2:10-6:00</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2307,7 +2325,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2316,18 +2333,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2746,14 +2751,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2773,21 +2778,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2796,14 +2801,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2812,14 +2817,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -2828,14 +2833,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -2844,7 +2849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -2853,14 +2858,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -2869,14 +2874,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -2887,7 +2892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -2896,7 +2901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2905,7 +2910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -2914,7 +2919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -2923,7 +2928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -2932,7 +2937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -2941,7 +2946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -2952,7 +2957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -2961,7 +2966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -2970,7 +2975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -2979,7 +2984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -2988,7 +2993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -2997,7 +3002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -3006,7 +3011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -3015,7 +3020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -3024,7 +3029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3035,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3044,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3053,7 +3058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3062,7 +3067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3071,7 +3076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3080,7 +3085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3089,7 +3094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3098,7 +3103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3107,7 +3112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3116,7 +3121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3125,7 +3130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3134,7 +3139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3143,7 +3148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3163,7 +3168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3172,7 +3177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3181,7 +3186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3190,7 +3195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3199,7 +3204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3219,7 +3224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3228,7 +3233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3237,7 +3242,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3246,7 +3251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3255,7 +3260,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3275,7 +3280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3284,7 +3289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3293,7 +3298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3303,7 +3308,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3312,7 +3317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3332,7 +3337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3341,7 +3346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3352,7 +3357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3361,7 +3366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3370,7 +3375,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3381,7 +3386,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3390,7 +3395,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3399,7 +3404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3408,7 +3413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3417,7 +3422,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3426,7 +3431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3435,7 +3440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3455,7 +3460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3464,7 +3469,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3475,7 +3480,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3484,7 +3489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3493,7 +3498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3519,14 +3524,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3557,7 +3562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3566,7 +3571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3586,7 +3591,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3595,7 +3600,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3606,7 +3611,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3615,7 +3620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3624,7 +3629,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3633,7 +3638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3642,7 +3647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3651,7 +3656,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3662,7 +3667,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3671,7 +3676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3680,7 +3685,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3689,7 +3694,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3698,7 +3703,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3707,7 +3712,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3716,7 +3721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3725,7 +3730,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3745,7 +3750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3754,7 +3759,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3763,7 +3768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3772,7 +3777,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3783,7 +3788,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3792,7 +3797,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3801,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3810,7 +3815,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -3830,7 +3835,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -3839,7 +3844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -3848,7 +3853,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -3868,7 +3873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -3877,7 +3882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -3886,7 +3891,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -3895,7 +3900,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -3904,7 +3909,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -3924,7 +3929,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -3933,7 +3938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -3942,7 +3947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -3951,7 +3956,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -3960,7 +3965,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -3969,7 +3974,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -3989,7 +3994,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -3998,7 +4003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -4007,7 +4012,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4027,7 +4032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4036,7 +4041,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4045,7 +4050,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4056,7 +4061,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4065,7 +4070,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4074,7 +4079,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4083,7 +4088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4092,7 +4097,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4103,7 +4108,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4112,7 +4117,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4121,7 +4126,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4130,7 +4135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4139,7 +4144,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4150,7 +4155,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4159,7 +4164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4168,7 +4173,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4177,7 +4182,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4188,7 +4193,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4197,7 +4202,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4206,7 +4211,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4215,7 +4220,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4224,7 +4229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4233,7 +4238,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4242,7 +4247,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4253,7 +4258,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4262,7 +4267,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4271,7 +4276,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4291,7 +4296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4300,7 +4305,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4309,7 +4314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4318,7 +4323,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4327,7 +4332,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4347,7 +4352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4356,7 +4361,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4376,7 +4381,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4385,7 +4390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4394,7 +4399,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4403,7 +4408,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4412,7 +4417,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4432,7 +4437,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4441,7 +4446,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4450,7 +4455,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4459,7 +4464,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4468,7 +4473,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4479,7 +4484,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4488,7 +4493,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4497,7 +4502,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4508,7 +4513,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4517,7 +4522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4539,14 +4544,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4557,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4568,7 +4573,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4577,7 +4582,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4586,7 +4591,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4595,7 +4600,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4604,7 +4609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4613,7 +4618,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4622,7 +4627,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4632,7 +4637,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4641,7 +4646,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4652,7 +4657,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4661,7 +4666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4670,7 +4675,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4679,7 +4684,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4699,7 +4704,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4708,7 +4713,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4717,7 +4722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4726,7 +4731,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4735,7 +4740,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4744,7 +4749,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4755,7 +4760,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4764,7 +4769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4773,7 +4778,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4782,7 +4787,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4802,7 +4807,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4811,7 +4816,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4820,7 +4825,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -4829,7 +4834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -4838,7 +4843,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -4847,7 +4852,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -4867,7 +4872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -4876,7 +4881,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4885,7 +4890,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -4896,7 +4901,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -4905,7 +4910,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -4914,7 +4919,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -4923,7 +4928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -4932,7 +4937,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -4941,7 +4946,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -4950,7 +4955,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -4970,7 +4975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -4979,7 +4984,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -4988,7 +4993,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -4997,7 +5002,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -5006,7 +5011,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -5017,7 +5022,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5026,7 +5031,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5035,7 +5040,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5044,7 +5049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5053,7 +5058,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5062,7 +5067,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5082,7 +5087,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5091,7 +5096,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5100,7 +5105,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5110,7 +5115,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5119,7 +5124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5129,7 +5134,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5138,7 +5143,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5149,7 +5154,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5158,7 +5163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5167,7 +5172,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5187,7 +5192,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5197,7 +5202,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5206,7 +5211,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5215,7 +5220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5225,7 +5230,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5234,7 +5239,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5243,7 +5248,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5252,7 +5257,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5261,7 +5266,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5272,7 +5277,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5281,7 +5286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5291,7 +5296,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5301,7 +5306,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5310,7 +5315,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5319,7 +5324,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5339,7 +5344,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5348,7 +5353,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5357,7 +5362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5366,7 +5371,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5376,7 +5381,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5385,7 +5390,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5394,7 +5399,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5403,7 +5408,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5412,7 +5417,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5421,7 +5426,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5441,7 +5446,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5450,7 +5455,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5459,7 +5464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5468,7 +5473,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5477,7 +5482,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5486,7 +5491,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5497,7 +5502,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5506,7 +5511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5515,7 +5520,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5524,7 +5529,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5533,7 +5538,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5553,7 +5558,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5562,7 +5567,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5571,7 +5576,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5580,7 +5585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5589,7 +5594,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5598,7 +5603,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5607,7 +5612,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5628,7 +5633,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5637,7 +5642,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5646,7 +5651,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5655,7 +5660,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5664,7 +5669,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5673,7 +5678,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5693,7 +5698,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5702,7 +5707,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5711,7 +5716,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5721,7 +5726,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5731,7 +5736,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5740,7 +5745,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5749,7 +5754,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5758,7 +5763,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -5770,7 +5775,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -5779,7 +5784,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -5788,7 +5793,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -5799,7 +5804,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -5808,7 +5813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -5828,18 +5833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -5850,18 +5855,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="111">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="110">
         <v>44958</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="112" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -5870,7 +5875,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -5879,7 +5884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -5888,7 +5893,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -5899,7 +5904,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
@@ -5908,7 +5913,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
@@ -5917,7 +5922,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
@@ -5926,7 +5931,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
       <c r="B10" s="98" t="s">
         <v>485</v>
@@ -5935,7 +5940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="90"/>
       <c r="B11" s="98" t="s">
         <v>486</v>
@@ -5944,7 +5949,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
@@ -5953,7 +5958,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="94">
         <v>44960</v>
       </c>
@@ -5964,16 +5969,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="91"/>
       <c r="B15" s="103" t="s">
         <v>489</v>
@@ -5982,64 +5987,98 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="94">
         <v>44963</v>
       </c>
       <c r="B16" s="104" t="s">
         <v>490</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="95" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>492</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="109" t="s">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="90"/>
+      <c r="B18" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="96" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="98"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="94">
+        <v>44964</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="91"/>
+      <c r="B21" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
       <c r="B22" s="98"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="93"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
       <c r="B23" s="98"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="93"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
       <c r="B24" s="98"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="93"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
       <c r="B25" s="98"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="93"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
       <c r="B26" s="98"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="93"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="90"/>
       <c r="B27" s="98"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="110"/>
+      <c r="C27" s="93"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="91"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
